--- a/raw_data/us_jolts_data.xlsx
+++ b/raw_data/us_jolts_data.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Data\RStudio\git\jolts\raw_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C2C0B7-2D0E-4080-830D-4E2E2839582F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="300" windowWidth="19440" windowHeight="14730"/>
+    <workbookView xWindow="-120" yWindow="300" windowWidth="19440" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="TRNR_308d0c56210045dd84e06486bde3de87_231_4" hidden="1">Planilha1!$A$1</definedName>
+    <definedName name="TRNR_bd7af08a2e80490caace5bf30b07b0a3_232_4" hidden="1">Planilha1!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Lucas Aguiar de Araujo Pereira</author>
+    <author>Paulo Gustavo Grahl</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{695C2D4E-B613-41BA-A20B-FC536C8A176E}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>=DSGRID("USJBHIREO,USJBSEPRO,USJBQUITO,USJBLOFFO"," ","BASE DATE","-0D","M","RowHeader=true;ColHeader=true;Code=true;DispSeriesDescription=false;YearlyTSFormat=false;QuarterlyTSFormat=false","")</t>
         </r>
@@ -54,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>US JOB HIRES LEVEL - TOTAL VOLA</t>
   </si>
@@ -82,11 +88,14 @@
   <si>
     <t>USJBLOFFO</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +109,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +163,7 @@
       <tp t="s">
         <v>Name</v>
         <stp/>
-        <stp>f5337048-60cc-434c-b17f-a92d7f661de8</stp>
+        <stp>97f4589d-e0f0-4569-a17d-92d8d5ac435b</stp>
         <tr r="A1" s="1"/>
       </tp>
     </main>
@@ -451,17 +460,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E232"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4370,35 +4379,72 @@
         <v>43784</v>
       </c>
       <c r="B230" s="3">
-        <v>5821</v>
+        <v>5827</v>
       </c>
       <c r="C230" s="3">
-        <v>5648</v>
+        <v>5709</v>
       </c>
       <c r="D230" s="3">
-        <v>3536</v>
+        <v>3568</v>
       </c>
       <c r="E230" s="3">
-        <v>1749</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>43814</v>
       </c>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
+      <c r="B231" s="3">
+        <v>5907</v>
+      </c>
+      <c r="C231" s="3">
+        <v>5730</v>
+      </c>
+      <c r="D231" s="3">
+        <v>3488</v>
+      </c>
+      <c r="E231" s="3">
+        <v>1895</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>43845</v>
       </c>
+      <c r="B232" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B233" t="s">
+        <v>9</v>
+      </c>
+      <c r="C233" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="TRAFO" prompt="$A$1:$E$232" sqref="A1"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="TRAFO" prompt="$A$1:$E$233" sqref="A1" xr:uid="{4910E038-F557-409B-9639-A6B2328666B0}"/>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
